--- a/დოკ/goog.xlsx
+++ b/დოკ/goog.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GTU\დოკ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A855E503-F85A-4B89-A7B4-D06C1761DC86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7342D9-1048-4181-BA2C-4C623175DBAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="8310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="goog" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -149,12 +151,30 @@
   </si>
   <si>
     <t>3/17/2017</t>
+  </si>
+  <si>
+    <t>czvczcx</t>
+  </si>
+  <si>
+    <t>xczxczx</t>
+  </si>
+  <si>
+    <t>zx</t>
+  </si>
+  <si>
+    <t>zc</t>
+  </si>
+  <si>
+    <t>cZzC</t>
+  </si>
+  <si>
+    <t>CZCzC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1007,10 +1027,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -2264,4 +2284,64 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836DD2D2-56CC-4A60-B772-5A69954B6E35}">
+  <dimension ref="E2:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE4820F-B30C-44EF-B2FC-BE6789626E49}">
+  <dimension ref="B5:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>